--- a/bank statement generator/bank_statements/statement_132.xlsx
+++ b/bank statement generator/bank_statements/statement_132.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 17.11.2024</t>
+          <t>KONTOSTAND AM 19.04.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,90 +759,74 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>18.11.</t>
+          <t>21.04.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>19.11.</t>
+          <t>22.04.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>BEITRAG Allianz SE K-16594652</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>27,35-</t>
+          <t>54,11-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>19.11.</t>
+          <t>25.04.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>20.11.</t>
+          <t>26.04.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Holzminden</t>
+          <t>BURGER KING Eisleben</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>14,07-</t>
+          <t>17,57-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>22.11.</t>
+          <t>27.04.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>23.11.</t>
+          <t>28.04.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./22.11 REWE RO</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 85356004</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>85,96-</t>
+          <t>85,92-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>23.11.</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>24.11.</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>RECHNUNG VODAFONE GMBH 79118855</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>39,59-</t>
-        </is>
-      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="8" t="n"/>
@@ -861,12 +845,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 27.11.2024</t>
+          <t>KONTOSTAND AM 30.04.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>166,97-</t>
+          <t>157,60-</t>
         </is>
       </c>
     </row>
@@ -874,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 02.12.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 06.05.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
